--- a/output.xlsx
+++ b/output.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,47 +422,1266 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Артикул</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Селлер</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Цена</t>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>URL_товара</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Магазин_на_карточке</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Цена_Ozon_банк_на_карточке</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Магазин_в_Есть_дешевле</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>URL_магазина</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Цена_в_Есть_дешевле_руб</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Доставка_текст</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Дней_до_доставки</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Топ MAMASUPER спортивные топ-бра</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>Дисплей для коллекционных фигурок</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/vitrina-dlya-figurok-seliya-displeyboks-1729245506/</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>КиД</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1 316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Топ OPIUM женский, спортивный</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Havenliving004</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/havenliving004-3368495/</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>173</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Доставим 13 февраля</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Kvass Corner</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/kvass-corner-2802816/</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>183</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Доставим 11 февраля</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NMgyy946</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/nmgyy946-2751575/</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>193</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Доставим 11 февраля</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Southeast Essentials</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/southeast-essentials-2450907/</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>221</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Доставим 12 февраля</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Shengte</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/shengte-1372753/</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>327</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Доставим 6 февраля</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Shenzhen Bao'an District Xin'an Street Chenshu Clothing Firm</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/shenzhen-bao-an-district-xin-an-street-chenshu-clothing-firm-1024702/</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>330</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Доставим 7 февраля</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Yibi</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/yibi-2402956/</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>336</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Доставим 7 февраля</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nalinyang4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/nalinyang4-3199476/</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>339</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Доставим 7 февраля</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>guanxin</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/guanxin-2401828/</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>342</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Доставим 7 февраля</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Haosheng</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/haosheng-1045598/</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>345</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Доставим 6 февраля</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Beilei</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/beilei-2550327/</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>346</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Доставим 7 февраля</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TYU98sa</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/tyu98sa-2362324/</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>346</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Доставим 7 февраля</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>WHFwuhaomei3</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/whfwuhaomei3-2708356/</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>346</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Доставим 7 февраля</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>XHSgechun1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/xhsgechun1-2707332/</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>346</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Доставим 8 февраля</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>hecHEIN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/hechein-1374812/</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>351</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Доставим 7 февраля</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>siqicyc4</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/siqicyc4-3102917/</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>351</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Доставим 7 февраля</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>yhnv</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/yhnv-3258844/</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>352</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Доставим 7 февраля</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>fgsh</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/fgsh-3235070/</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>358</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Доставим 7 февраля</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Gaojiao</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/gaojiao-2490405/</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>359</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Доставим 7 февраля</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Baidukeji</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/baidukeji-1042048/</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>360</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Доставим 6 февраля</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Shenzhen mingpai technology co., ltd</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/shenzhen-mingpai-technology-co-ltd-1920006/</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>361</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Доставим 8 февраля</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>heyarui6</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/heyarui6-3202582/</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>361</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Доставим 10 февраля</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>YUzIMYgs</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/yuzimygs-1296241/</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>366</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Доставим 6 февраля</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Yangben</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/yangben-2382193/</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>382</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Доставим 7 февраля</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>fhdgjir</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/fhdgjir-2596639/</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>692</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Доставим 7 февраля</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>LPpinliao5</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/lppinliao5-2932421/</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>692</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Доставим 7 февраля</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Дисплей для минералов или кристаллов</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/reguliruemaya-metallicheskaya-vitrina-polka-molbert-s-akrilovoy-osnovoy-dlya-mineralov-i-hrustalya-3338076636/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>TINYZ</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Fanyan25-04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/seller/fanyan25-04-3503238/</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2649</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Доставим 25 февраля</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мини-витрина для сувениров или фото </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/product/c-i-o-k-9-urovnevaya-akrilovaya-vrashchayushchayasya-podstavka-organayzer-dlya-mini-2042849039/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MinleXin</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
